--- a/ISRaD_data_files/Horwath_2008.xlsx
+++ b/ISRaD_data_files/Horwath_2008.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfromm\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00652C5A-B947-4B66-955E-DC838AAADA09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22860" windowHeight="12800" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22860" windowHeight="12804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="915">
   <si>
     <t>entry_name</t>
   </si>
@@ -2768,12 +2774,18 @@
   </si>
   <si>
     <t>frc_fraction_modern_sd</t>
+  </si>
+  <si>
+    <t>pro_usda_soil_order</t>
+  </si>
+  <si>
+    <t>Gelisols</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3156,14 +3168,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3213,7 +3227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3260,7 +3274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3298,7 +3312,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3351,14 +3365,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3381,7 +3395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3404,7 +3418,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3421,7 +3435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3450,14 +3464,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3498,76 +3514,79 @@
         <v>84</v>
       </c>
       <c r="N1" t="s">
+        <v>913</v>
+      </c>
+      <c r="O1" t="s">
         <v>85</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>86</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>88</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>89</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>90</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>91</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>92</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>93</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>94</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>95</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>96</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>97</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>98</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>100</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>101</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>102</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>103</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>104</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>105</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>106</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3607,77 +3626,77 @@
       <c r="M2" t="s">
         <v>116</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>117</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>118</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>119</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>120</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>121</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>122</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>123</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>124</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>125</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>126</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>127</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>128</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>129</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>130</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>131</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>133</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>134</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>135</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>136</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>137</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>138</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3705,29 +3724,26 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>145</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>146</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>147</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>144</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>148</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>149</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>150</v>
-      </c>
-      <c r="V3" t="s">
-        <v>151</v>
       </c>
       <c r="W3" t="s">
         <v>151</v>
@@ -3736,43 +3752,46 @@
         <v>151</v>
       </c>
       <c r="Y3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z3" t="s">
         <v>152</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>153</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>154</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>155</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>156</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>157</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>148</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>158</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>159</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>160</v>
       </c>
       <c r="AI3" t="s">
         <v>160</v>
       </c>
       <c r="AJ3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3792,15 +3811,18 @@
         <v>164</v>
       </c>
       <c r="N4" t="s">
+        <v>914</v>
+      </c>
+      <c r="O4" t="s">
         <v>165</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>166</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>167</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3816,14 +3838,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3936,7 +3958,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4046,7 +4068,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4138,21 +4160,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CT8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4448,7 +4470,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="1:98">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4744,7 +4766,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="3" spans="1:98">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4983,7 +5005,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5027,7 +5049,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:98">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -5071,7 +5093,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="6" spans="1:98">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -5115,7 +5137,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:98">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -5159,7 +5181,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:98">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -5215,14 +5237,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5308,7 +5330,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5391,7 +5413,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5450,16 +5472,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:73" ht="52">
+    <row r="1" spans="1:73" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5680,7 +5702,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5898,7 +5920,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6077,14 +6099,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6176,7 +6198,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6259,7 +6281,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6318,14 +6340,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>669</v>
       </c>
@@ -6459,7 +6481,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -6593,7 +6615,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>715</v>
       </c>
@@ -6616,7 +6638,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>720</v>
       </c>
@@ -6750,7 +6772,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>753</v>
       </c>
@@ -6863,7 +6885,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>786</v>
       </c>
@@ -6964,7 +6986,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>813</v>
       </c>
@@ -7038,7 +7060,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>834</v>
       </c>
@@ -7106,7 +7128,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>850</v>
       </c>
@@ -7159,7 +7181,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>866</v>
       </c>
@@ -7191,7 +7213,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>876</v>
       </c>
@@ -7217,7 +7239,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>883</v>
       </c>
@@ -7234,7 +7256,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U13" t="s">
         <v>888</v>
       </c>
@@ -7248,7 +7270,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U14" t="s">
         <v>892</v>
       </c>
@@ -7259,7 +7281,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U15" t="s">
         <v>895</v>
       </c>
@@ -7270,7 +7292,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U16" t="s">
         <v>898</v>
       </c>
@@ -7281,7 +7303,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="17" spans="40:41">
+    <row r="17" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN17" t="s">
         <v>901</v>
       </c>
@@ -7289,7 +7311,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="18" spans="40:41">
+    <row r="18" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN18" t="s">
         <v>903</v>
       </c>
@@ -7297,7 +7319,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="19" spans="40:41">
+    <row r="19" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN19" t="s">
         <v>905</v>
       </c>
@@ -7305,7 +7327,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="20" spans="40:41">
+    <row r="20" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN20" t="s">
         <v>907</v>
       </c>
@@ -7313,7 +7335,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="21" spans="40:41">
+    <row r="21" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN21" t="s">
         <v>909</v>
       </c>
